--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Large Model equivalence 3.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Large Model equivalence 3.xlsx_with_dialog_acts.xlsx
@@ -879,12 +879,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1747,12 +1747,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1975,12 +1975,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2241,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3107,12 +3107,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3335,12 +3335,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3525,12 +3525,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4669,12 +4669,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5163,12 +5163,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5353,12 +5353,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5581,12 +5581,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5809,12 +5809,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6037,12 +6037,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6417,12 +6417,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6455,12 +6455,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6531,12 +6531,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6873,12 +6873,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7333,12 +7333,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7447,12 +7447,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7675,12 +7675,12 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8059,12 +8059,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8325,12 +8325,12 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8477,12 +8477,12 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8515,12 +8515,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8667,12 +8667,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8895,12 +8895,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9085,12 +9085,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9161,12 +9161,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9503,12 +9503,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9541,12 +9541,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9579,12 +9579,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9655,12 +9655,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9731,12 +9731,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9921,12 +9921,12 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9997,12 +9997,12 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
